--- a/classfiers/greedy/elm/nearmiss/greedy_elm_tanh_nearmiss_results.xlsx
+++ b/classfiers/greedy/elm/nearmiss/greedy_elm_tanh_nearmiss_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3">
@@ -482,35 +482,86 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.4444444444444445</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9166666666666667</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8831168831168831</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.875</v>
+      <c r="B7" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4400000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.683888888888889</v>
       </c>
     </row>
   </sheetData>
